--- a/LaTech/BIOM_510_Bioinstrumentation/Lab/Lab4.xlsx
+++ b/LaTech/BIOM_510_Bioinstrumentation/Lab/Lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunzi\Documents\Study\LaTech\BIOM_510_Bioinstrumentation\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9C655-1D68-4B28-8B6E-15B16E70F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B5747-842F-450A-9712-8F168943816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17325" windowHeight="15585" activeTab="1" xr2:uid="{27F54608-578A-4E0F-A617-D641851A0136}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{27F54608-578A-4E0F-A617-D641851A0136}"/>
   </bookViews>
   <sheets>
     <sheet name="1&amp;2" sheetId="1" r:id="rId1"/>
@@ -12202,16 +12202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>301062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>59516</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79837</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>199028</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>59516</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592319</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59517</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12655,9 +12655,9 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I8">
         <v>27.2</v>
       </c>
@@ -12825,24 +12825,24 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>3542.6470348991279</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -12930,18 +12930,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2358174-DA6C-4574-A75B-CFBBBCB01D33}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>32</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>42.0723225549186</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>-0.53259999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16.2</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>16.111879999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>40</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>3.4359999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>3.4192611937956998E+36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>1.82875173393709E+18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>1484438611170.8301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1337414377.5999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>19910778.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>1204951.96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>162511.87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>36167.760000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.5</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>11240.15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>4412.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.5</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>2053.61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>1085.6099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6.5</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>633.02</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>398.69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.5</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>267.06</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>188.08</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.5</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>138.04</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.5</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>81.98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10.5</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>53.77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>44.82</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11.5</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12.5</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13.5</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14.5</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15.5</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>16</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16.5</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>17</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>17.5</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>18</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>18.5</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>19</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>19.5</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20.5</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>21</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>21.5</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>22</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>22.5</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>23</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>23.5</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>24</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24.5</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>25</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>25.5</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>26</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>26.5</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>27</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>27.5</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>28</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>28.5</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>29</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>29.5</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>30</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>30.5</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>31</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>31.5</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>32</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>32.5</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>33</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>33.5</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>34</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>34.5</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>35</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>35.5</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>36</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>36.5</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>37</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>37.5</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>38</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>38.5</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>39</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>39.5</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>40</v>
       </c>
@@ -14120,13 +14120,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039338B9-46D3-4AA9-BC10-054756AAD4C0}">
   <dimension ref="A1:I582"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>2.4830000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.11</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>2.4809999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.12</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.13</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.14000000000000001</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.15</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.16</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>2.4729999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.17</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>2.4710000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.18</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.19</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>2.4670000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.21</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.22</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>2.464</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.23</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.24</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.25</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>2.4590000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.26</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.27</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.28000000000000003</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>2.4540000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.28999999999999998</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>2.4529999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.3</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.31</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.32</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.33</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.34</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.35</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.36</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>2.4420000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.37</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.38</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>2.4390000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.39</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>2.4380000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.4</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>2.4369999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.41</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.42</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.43</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.44</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>5.1503121764001972E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.45</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>2.4289999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.46</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>0.10897637056813955</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.47</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>2.427</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.48</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>5.4488185284069776E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.49</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>2.4239999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.5</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.51</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.52</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.53</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>2.419</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.54</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.55000000000000004</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>2.4159999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.56000000000000005</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>2.415</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.56999999999999995</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>2.4129999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.57999999999999996</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.59</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>2.411</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.6</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.61</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.62</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>2.407</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.63</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.64</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.65</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.66</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>2.4020000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.67</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.68</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>2.399</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.69</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>2.3980000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.7</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>2.3969999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.71</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>2.395</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.72</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>2.3940000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.73</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>2.3929999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.74</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.75</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>2.391</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.76</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>2.3889999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.77</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.78</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>2.387</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.79</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>2.3860000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.8</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>2.3849999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.81</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.82</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>2.3820000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.83</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>2.3809999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.84</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.85</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>2.379</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.86</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>2.3780000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.87</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>2.3769999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.88</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.89</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>2.3740000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.9</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.91</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.92</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.93</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.94</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.95</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>2.3679999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.96</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.97</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.98</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.99</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1.01</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>2.3610000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1.02</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1.03</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>2.359</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.04</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.05</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>2.3570000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1.06</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>2.3559999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1.07</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>2.355</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1.08</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>2.3540000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1.0900000000000001</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>2.3530000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1.1000000000000001</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.1100000000000001</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>2.351</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.1200000000000001</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.1299999999999999</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.1399999999999999</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.1499999999999999</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>2.347</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.1599999999999999</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1.17</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>2.3450000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1.18</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.19</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>2.343</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1.2</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1.21</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>2.3410000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1.22</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1.23</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>2.339</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1.24</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>2.3380000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1.25</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>2.3370000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.26</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.27</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>2.335</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.28</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>2.335</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.29</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>2.3340000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.3</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.31</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.32</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>2.331</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.33</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.34</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>2.3290000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.35</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.36</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1.37</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.38</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.39</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>2.3250000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1.4</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.41</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.42</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>2.3220000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.43</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>2.3210000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.44</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.45</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.46</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1.47</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>2.3180000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1.48</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1.49</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.5</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>2.3149999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1.51</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>2.3149999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.52</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>2.3140000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1.53</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1.54</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>2.3119999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1.55</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>2.3109999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1.56</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1.57</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1.58</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1.59</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>2.3079999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1.6</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1.61</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1.62</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1.63</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>2.3050000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1.64</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1.65</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1.66</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>2.3029999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1.67</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>2.302</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1.68</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1.69</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1.7</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1.71</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>2.2989999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1.72</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>2.298</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1.73</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>2.2970000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1.74</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>2.2970000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1.75</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>2.2959999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1.76</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>2.2949999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1.77</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>2.294</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1.78</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>2.294</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1.79</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>2.2930000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1.8</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1.81</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1.82</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>2.2909999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1.83</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1.84</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1.85</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1.86</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.87</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1.88</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1.89</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>2.286</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1.9</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>2.2850000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.91</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>2.2850000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1.92</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1.93</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1.94</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1.95</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1.96</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>2.2810000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1.97</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>2.2810000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1.98</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1.99</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>2.2789999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>2.2789999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2.0099999999999998</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2.02</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2.0299999999999998</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2.04</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2.0499999999999998</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>2.06</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2.0699999999999998</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>2.274</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2.08</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>2.274</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2.09</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2.1</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2.11</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2.12</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2.13</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2.14</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2.15</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2.16</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2.17</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2.1800000000000002</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2.19</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>2.2669999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2.2000000000000002</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>2.2669999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2.21</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>2.266</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2.2200000000000002</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2.23</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2.2400000000000002</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2.25</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2.2599999999999998</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2.27</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2.2799999999999998</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2.29</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2.2999999999999998</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2.31</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2.3199999999999998</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2.33</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>2.2589999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2.34</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>2.2589999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2.35</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2.36</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2.37</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2.38</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2.39</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2.4</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2.41</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2.42</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2.4300000000000002</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2.44</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2.4500000000000002</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2.46</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2.4700000000000002</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2.48</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>2.2509999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2.4900000000000002</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>2.2509999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2.5</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2.5099999999999998</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2.52</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>2.2490000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2.5299999999999998</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>2.2490000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2.54</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2.5499999999999998</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2.56</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>2.2469999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2.57</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>2.2469999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2.58</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>2.246</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2.59</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>2.246</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2.6000000000000099</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>2.2450000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2.6100000000000101</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>2.2450000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2.6200000000000099</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>2.2440000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2.6300000000000101</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.2440000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2.6400000000000099</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2.6500000000000101</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2.6600000000000099</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2.6700000000000101</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2.6800000000000099</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2.6900000000000102</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>2.2410000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2.7000000000000099</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>2.2410000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2.7100000000000102</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2.72000000000001</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2.7300000000000102</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2.74000000000001</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2.7500000000000102</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>2.238</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2.76000000000001</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>2.238</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2.7700000000000098</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>2.238</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2.78000000000001</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2.7900000000000098</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2.80000000000001</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2.8100000000000098</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2.8200000000000101</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>2.2349999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2.8300000000000098</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>2.2349999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2.8400000000000101</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>2.2349999999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2.8500000000000099</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2.8600000000000101</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2.8700000000000099</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>2.2330000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2.8800000000000101</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>2.2330000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2.8900000000000099</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>2.2330000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2.9000000000000101</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>2.2320000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2.9100000000000099</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>2.2320000000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2.9200000000000101</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2.9300000000000099</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2.9400000000000102</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2.9500000000000099</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2.9600000000000102</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2.97000000000001</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>2.2290000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2.9800000000000102</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>2.2290000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2.99000000000001</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>2.2280000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3.00000000000002</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>2.2280000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3.01000000000001</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>2.5310999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3.0200000000000098</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>2.5308999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3.03000000000001</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>2.5308000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3.04000000000002</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>2.5306000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3.0500000000000198</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>2.5305</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3.06000000000002</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>2.5303</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3.0700000000000198</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>2.5301999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3.0800000000000201</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>3.0900000000000198</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>2.5299</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3.1000000000000201</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>2.5297000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3.1100000000000199</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>2.5295999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3.1200000000000201</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>2.5293999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3.1300000000000199</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>2.5293000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3.1400000000000201</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>2.5291000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3.1500000000000199</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>2.5289999999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>3.1600000000000201</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>2.5287999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>3.1700000000000199</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>2.5287000000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>3.1800000000000201</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>2.5285000000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3.1900000000000199</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>2.5284</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3.2000000000000202</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>2.5283000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>3.2100000000000199</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>2.5280999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>3.2200000000000202</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>2.528</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3.23000000000002</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>2.5278</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3.2400000000000202</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>2.5276999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>3.25000000000002</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>2.5276000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>3.2600000000000202</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>2.5274000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3.27000000000002</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>2.5272999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3.2800000000000198</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>2.5272000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3.29000000000002</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>2.5270000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3.3000000000000198</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>2.5268999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3.31000000000002</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>2.5268000000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3.3200000000000198</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.5266000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>3.3300000000000201</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>2.5265</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>3.3400000000000198</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>2.5264000000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3.3500000000000201</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>2.5261999999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>3.3600000000000199</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>2.5261</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>3.3700000000000201</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>2.5259999999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>3.3800000000000199</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>2.5257999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>3.3900000000000201</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>2.5257000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>3.4000000000000199</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>2.5255999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>3.4100000000000201</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>2.5253999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>3.4200000000000199</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>2.5253000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>3.4300000000000201</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>2.5251999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>3.4400000000000199</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>2.5251000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>3.4500000000000299</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>2.5249000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>3.4600000000000302</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>2.5247999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>3.4700000000000299</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v>2.5247000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3.4800000000000302</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>2.5246</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>3.49000000000003</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>2.5245000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>3.5000000000000302</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>2.5243000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>3.51000000000003</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>2.5242</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>3.5200000000000302</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>2.5240999999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>3.53000000000003</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>3.5400000000000298</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>2.5238</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>3.55000000000003</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>2.5236999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>3.5600000000000298</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>2.5236000000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>3.57000000000003</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>2.5234999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>3.5800000000000298</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>2.5234000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>3.5900000000000301</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>2.5232999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>3.6000000000000298</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>2.5230999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3.6100000000000301</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3.6200000000000299</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>2.5228999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>3.6300000000000301</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>2.5228000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>3.6400000000000299</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>2.5226999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3.6500000000000301</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>2.5226000000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3.6600000000000299</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>2.5225</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3.6700000000000301</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>2.5223</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3.6800000000000299</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>2.5222000000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3.6900000000000301</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>2.5221</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3.7000000000000299</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>2.5219999999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3.7100000000000302</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>2.5219</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>3.7200000000000299</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>2.5217999999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>3.7300000000000302</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>2.5217000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3.74000000000003</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>2.5215999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>3.7500000000000302</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>2.5215000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>3.76000000000003</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>2.5213999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>3.7700000000000302</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>2.5213000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>3.78000000000003</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>2.5211999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3.7900000000000298</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>3.80000000000003</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>2.5209000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>3.8100000000000298</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>2.5207999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>3.82000000000003</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>2.5207000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>3.8300000000000298</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>2.5206</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>3.8400000000000301</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>2.5205000000000002</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>3.8500000000000298</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>2.5204</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>3.8600000000000301</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>2.5203000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>3.8700000000000299</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>3.8800000000000399</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>2.5200999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>3.8900000000000401</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>3.9000000000000399</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>2.5198999999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3.9100000000000401</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>2.5198</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>3.9200000000000399</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>2.5196999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>3.9300000000000401</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>2.5196000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>3.9400000000000399</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>2.5194999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>3.9500000000000401</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>2.5194000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>3.9600000000000399</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>2.5192999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>3.9700000000000402</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>2.5192000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>3.98000000000004</v>
       </c>
@@ -19697,7 +19697,7 @@
         <v>2.5190999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>3.9900000000000402</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>2.5190000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>4.00000000000004</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>2.5188999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>4.0100000000000398</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>2.5188999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>4.0200000000000404</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>2.5188000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>4.0300000000000402</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>2.5186999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>4.04000000000004</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>2.5186000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>4.0500000000000398</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>2.5185</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>4.0600000000000396</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>2.5184000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>4.0700000000000403</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>2.5183</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>4.08000000000004</v>
       </c>
@@ -19787,7 +19787,7 @@
         <v>2.5182000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>4.0900000000000398</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>2.5181</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>4.1000000000000396</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>4.1100000000000403</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>2.5179</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>4.1200000000000401</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>2.5177999999999998</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>4.1300000000000399</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>2.5177999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>4.1400000000000396</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>2.5177</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>4.1500000000000403</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>2.5175999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>4.1600000000000401</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>2.5175000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>4.1700000000000399</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>2.5173999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>4.1800000000000397</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>2.5173000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>4.1900000000000404</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>2.5171999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>4.2000000000000401</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>2.5171000000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>4.2100000000000399</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>2.5171000000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>4.2200000000000397</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>4.2300000000000404</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>2.5169000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>4.2400000000000402</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>2.5167999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>4.25000000000004</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>2.5167000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>4.2600000000000398</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>2.5165999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>4.2700000000000404</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>2.5165999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>4.2800000000000402</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>2.5165000000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>4.29000000000004</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>2.5164</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>4.3000000000000398</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>2.5163000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>4.3100000000000502</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2.5162</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>4.32000000000005</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>2.5160999999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>4.3300000000000498</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>2.5160999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>4.3400000000000496</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>4.3500000000000503</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>2.5158999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>4.3600000000000501</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>2.5158</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>4.3700000000000498</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>2.5156999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>4.3800000000000496</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>2.5156999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>4.3900000000000503</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>2.5156000000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>4.4000000000000501</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>2.5154999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>4.4100000000000499</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>2.5154000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>4.4200000000000497</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>2.5154000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>4.4300000000000503</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>2.5152999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>4.4400000000000501</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>2.5152000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>4.4500000000000499</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>2.5150999999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>4.4600000000000497</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>2.5150999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>4.4700000000000504</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>4.4800000000000502</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>2.5148999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>4.49000000000005</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>2.5148000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>4.5000000000000497</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>2.5148000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>4.5100000000000504</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>2.5146999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>4.5200000000000502</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>2.5146000000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>4.53000000000005</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>2.5145</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>4.5400000000000498</v>
       </c>
@@ -20201,7 +20201,7 @@
         <v>2.5145</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>4.5500000000000496</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>2.5144000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>4.5600000000000502</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>2.5143</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>4.57000000000005</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>2.5142000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>4.5800000000000498</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>2.5142000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>4.5900000000000496</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>2.5141</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>4.6000000000000503</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>4.6100000000000501</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>4.6200000000000498</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>2.5139</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>4.6300000000000496</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>2.5137999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>4.6400000000000503</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2.5137999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>4.6500000000000501</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>2.5137</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>4.6600000000000499</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>2.5135999999999998</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>4.6700000000000497</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>2.5135999999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>4.6800000000000503</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>2.5135000000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>4.6900000000000501</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>2.5133999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>4.7000000000000499</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>2.5133999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>4.7100000000000497</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>2.5133000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>4.7200000000000504</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>2.5131999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>4.7300000000000502</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>2.5131999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>4.74000000000005</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>2.5131000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>4.7500000000000604</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>2.5129999999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>4.7600000000000602</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>2.5129999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>4.77000000000006</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>2.5129000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>4.7800000000000598</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>2.5127999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>4.7900000000000604</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>2.5127999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>4.8000000000000602</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>2.5127000000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>4.81000000000006</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>2.5125999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>4.8200000000000598</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>2.5125999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>4.8300000000000596</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>4.8400000000000603</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>2.5124</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>4.85000000000006</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>2.5124</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>4.8600000000000598</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>2.5123000000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>4.8700000000000596</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>2.5123000000000002</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>4.8800000000000603</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>2.5122</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>4.8900000000000601</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>2.5121000000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>4.9000000000000599</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>2.5121000000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>4.9100000000000597</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>4.9200000000000603</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>4.9300000000000601</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>2.5118999999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>4.9400000000000599</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>2.5118</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>4.9500000000000597</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>2.5118</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>4.9600000000000604</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2.5116999999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>4.9700000000000601</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>2.5116999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>4.9800000000000599</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>2.5116000000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>4.9900000000000597</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>2.5114999999999998</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>5.0000000000000604</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>2.5114999999999998</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>5.0100000000000602</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>2.5114000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>5.02000000000006</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>2.5114000000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>5.0300000000000598</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>2.5112999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>5.0400000000000604</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>2.5112999999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>5.0500000000000602</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>2.5112000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>5.06000000000006</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>2.5112000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>5.0700000000000598</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>2.5110999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>5.0800000000000596</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>2.5110000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>5.0900000000000603</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>2.5110000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>5.10000000000006</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>2.5108999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>5.1100000000000598</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>2.5108999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>5.1200000000000596</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>2.5108000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>5.1300000000000603</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>2.5108000000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>5.1400000000000601</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>2.5106999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>5.1500000000000599</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>2.5106999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>5.1600000000000597</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>2.5106000000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>5.1700000000000603</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>2.5106000000000002</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>5.1800000000000699</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>2.5105</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>5.1900000000000697</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>2.5105</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>5.2000000000000703</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>2.5104000000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>5.2100000000000701</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>2.5103</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>5.2200000000000699</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>2.5103</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>5.2300000000000697</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>2.5102000000000002</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>5.2400000000000704</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>2.5102000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>5.2500000000000702</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>2.5101</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>5.26000000000007</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>2.5101</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>5.2700000000000697</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>5.2800000000000704</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>5.2900000000000702</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>2.5099</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>5.30000000000007</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>2.5099</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>5.3100000000000698</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>2.5097999999999998</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>5.3200000000000696</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>2.5097999999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>5.3300000000000702</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>2.5097</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>5.34000000000007</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>2.5097</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>5.3500000000000698</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>2.5095999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>5.3600000000000696</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>2.5095999999999998</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>5.3700000000000703</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>2.5095999999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5.3800000000000701</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>2.5095000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>5.3900000000000698</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>2.5095000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>5.4000000000000696</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>2.5093999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5.4100000000000703</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>2.5093999999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>5.4200000000000701</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>2.5093000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>5.4300000000000699</v>
       </c>
@@ -21002,7 +21002,7 @@
         <v>2.5093000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>5.4400000000000697</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>2.5091999999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>5.4500000000000703</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>2.5091999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>5.4600000000000701</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>2.5091000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>5.4700000000000699</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>2.5091000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>5.4800000000000697</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>5.4900000000000704</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>5.5000000000000702</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>2.5089000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>5.51000000000007</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>2.5089000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>5.5200000000000697</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>2.5089000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>5.5300000000000704</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>2.5087999999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>5.5400000000000702</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>2.5087999999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>5.55000000000007</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>2.5087000000000002</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>5.5600000000000698</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>2.5087000000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>5.5700000000000696</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>2.5085999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>5.5800000000000702</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>2.5085999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>5.59000000000007</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>2.5085999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>5.6000000000000698</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>2.5085000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>5.6100000000000803</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>2.5085000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>5.62000000000008</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>2.5084</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>5.6300000000000798</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>2.5084</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>5.6400000000000796</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>2.5083000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>5.6500000000000803</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>2.5083000000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5.6600000000000801</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>2.5083000000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>5.6700000000000799</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>2.5082</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>5.6800000000000797</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>2.5082</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>5.6900000000000803</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>2.5081000000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>5.7000000000000801</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>2.5081000000000002</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>5.7100000000000799</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>2.5081000000000002</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>5.7200000000000797</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>2.508</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>5.7300000000000804</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>2.508</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>5.7400000000000801</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>2.5078999999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>5.7500000000000799</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>2.5078999999999998</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>5.7600000000000797</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>2.5078999999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>5.7700000000000804</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>2.5078</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>5.7800000000000802</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>2.5078</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>5.79000000000008</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>2.5076999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>5.8000000000000798</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>2.5076999999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>5.8100000000000804</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>2.5076999999999998</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>5.8200000000000802</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>2.5076000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>5.83000000000008</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>2.5076000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>5.8400000000000798</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>2.5076000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>5.8500000000000796</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>2.5074999999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>5.8600000000000803</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>2.5074999999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>5.87000000000008</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>2.5074000000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>5.8800000000000798</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>2.5074000000000001</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>5.8900000000000796</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>2.5074000000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>5.9000000000000803</v>
       </c>
